--- a/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--gap-by-year--chart-format.xlsx
+++ b/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--gap-by-year--chart-format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\intermediate_outcomes\compulsory_school_age_(5_to_16_years)\attainment_at_age_16\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4216AF2B-C117-410C-AD38-C5EAD832F8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB52C5-F1E7-49B2-978B-08FF2F5FF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{5E2D5D1F-6118-431C-89A2-EEDE323452EA}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="107">
   <si>
     <t>ind_code</t>
   </si>
@@ -305,6 +305,45 @@
   </si>
   <si>
     <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>2010/11</t>
+  </si>
+  <si>
+    <t>2011/12</t>
+  </si>
+  <si>
+    <t>2012/13</t>
+  </si>
+  <si>
+    <t>2013/14</t>
+  </si>
+  <si>
+    <t>2014/15</t>
+  </si>
+  <si>
+    <t>2015/16</t>
+  </si>
+  <si>
+    <t>2016/17</t>
+  </si>
+  <si>
+    <t>2017/18</t>
+  </si>
+  <si>
+    <t>2018/19</t>
+  </si>
+  <si>
+    <t>2019/20</t>
+  </si>
+  <si>
+    <t>2020/21</t>
+  </si>
+  <si>
+    <t>2021/22</t>
+  </si>
+  <si>
+    <t>2022/23</t>
   </si>
 </sst>
 </file>
@@ -12630,8 +12669,8 @@
       <c r="E177" t="s">
         <v>25</v>
       </c>
-      <c r="F177">
-        <v>201011</v>
+      <c r="F177" t="s">
+        <v>94</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -12695,8 +12734,8 @@
       <c r="E178" t="s">
         <v>25</v>
       </c>
-      <c r="F178">
-        <v>201112</v>
+      <c r="F178" t="s">
+        <v>95</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -12760,8 +12799,8 @@
       <c r="E179" t="s">
         <v>25</v>
       </c>
-      <c r="F179">
-        <v>201213</v>
+      <c r="F179" t="s">
+        <v>96</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -12825,8 +12864,8 @@
       <c r="E180" t="s">
         <v>25</v>
       </c>
-      <c r="F180">
-        <v>201314</v>
+      <c r="F180" t="s">
+        <v>97</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -12890,8 +12929,8 @@
       <c r="E181" t="s">
         <v>25</v>
       </c>
-      <c r="F181">
-        <v>201415</v>
+      <c r="F181" t="s">
+        <v>98</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -12955,8 +12994,8 @@
       <c r="E182" t="s">
         <v>25</v>
       </c>
-      <c r="F182">
-        <v>201516</v>
+      <c r="F182" t="s">
+        <v>99</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -13020,8 +13059,8 @@
       <c r="E183" t="s">
         <v>25</v>
       </c>
-      <c r="F183">
-        <v>201617</v>
+      <c r="F183" t="s">
+        <v>100</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -13085,8 +13124,8 @@
       <c r="E184" t="s">
         <v>25</v>
       </c>
-      <c r="F184">
-        <v>201718</v>
+      <c r="F184" t="s">
+        <v>101</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -13150,8 +13189,8 @@
       <c r="E185" t="s">
         <v>25</v>
       </c>
-      <c r="F185">
-        <v>201819</v>
+      <c r="F185" t="s">
+        <v>102</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -13215,8 +13254,8 @@
       <c r="E186" t="s">
         <v>25</v>
       </c>
-      <c r="F186">
-        <v>201920</v>
+      <c r="F186" t="s">
+        <v>103</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
@@ -13280,8 +13319,8 @@
       <c r="E187" t="s">
         <v>25</v>
       </c>
-      <c r="F187">
-        <v>202021</v>
+      <c r="F187" t="s">
+        <v>104</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -13345,8 +13384,8 @@
       <c r="E188" t="s">
         <v>25</v>
       </c>
-      <c r="F188">
-        <v>202122</v>
+      <c r="F188" t="s">
+        <v>105</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -13410,8 +13449,8 @@
       <c r="E189" t="s">
         <v>25</v>
       </c>
-      <c r="F189">
-        <v>202223</v>
+      <c r="F189" t="s">
+        <v>106</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -13500,7 +13539,7 @@
         <v>28</v>
       </c>
       <c r="N190">
-        <v>0.246984491671453</v>
+        <v>0.246984492</v>
       </c>
       <c r="O190">
         <v>3482</v>
@@ -13565,7 +13604,7 @@
         <v>28</v>
       </c>
       <c r="N191">
-        <v>0.54952210902216203</v>
+        <v>0.54952210899999998</v>
       </c>
       <c r="O191">
         <v>19042</v>
@@ -13630,7 +13669,7 @@
         <v>28</v>
       </c>
       <c r="N192">
-        <v>0.24494497056565101</v>
+        <v>0.24494497100000001</v>
       </c>
       <c r="O192">
         <v>3907</v>
@@ -13695,7 +13734,7 @@
         <v>28</v>
       </c>
       <c r="N193">
-        <v>0.56646302928165204</v>
+        <v>0.56646302900000001</v>
       </c>
       <c r="O193">
         <v>23735</v>
@@ -13760,7 +13799,7 @@
         <v>28</v>
       </c>
       <c r="N194">
-        <v>0.183537263626251</v>
+        <v>0.18353726400000001</v>
       </c>
       <c r="O194">
         <v>1798</v>
@@ -13825,7 +13864,7 @@
         <v>28</v>
       </c>
       <c r="N195">
-        <v>0.50847848656131001</v>
+        <v>0.50847848699999998</v>
       </c>
       <c r="O195">
         <v>8669</v>
@@ -13890,7 +13929,7 @@
         <v>28</v>
       </c>
       <c r="N196">
-        <v>0.19202898550724601</v>
+        <v>0.19202898600000001</v>
       </c>
       <c r="O196">
         <v>1104</v>
@@ -13955,7 +13994,7 @@
         <v>28</v>
       </c>
       <c r="N197">
-        <v>0.44490781387181699</v>
+        <v>0.44490781400000001</v>
       </c>
       <c r="O197">
         <v>4556</v>
@@ -14020,7 +14059,7 @@
         <v>28</v>
       </c>
       <c r="N198">
-        <v>0.18642117376294601</v>
+        <v>0.186421174</v>
       </c>
       <c r="O198">
         <v>869</v>
@@ -14085,7 +14124,7 @@
         <v>28</v>
       </c>
       <c r="N199">
-        <v>0.44062356717102202</v>
+        <v>0.44062356699999999</v>
       </c>
       <c r="O199">
         <v>4362</v>
@@ -14150,7 +14189,7 @@
         <v>28</v>
       </c>
       <c r="N200">
-        <v>0.20697012802275999</v>
+        <v>0.206970128</v>
       </c>
       <c r="O200">
         <v>5624</v>
@@ -14215,7 +14254,7 @@
         <v>28</v>
       </c>
       <c r="N201">
-        <v>0.49194879089615901</v>
+        <v>0.491948791</v>
       </c>
       <c r="O201">
         <v>17575</v>
@@ -14280,7 +14319,7 @@
         <v>28</v>
       </c>
       <c r="N202">
-        <v>0.205116491548652</v>
+        <v>0.20511649200000001</v>
       </c>
       <c r="O202">
         <v>2189</v>
@@ -14345,7 +14384,7 @@
         <v>28</v>
       </c>
       <c r="N203">
-        <v>0.50689799331103702</v>
+        <v>0.50689799300000005</v>
       </c>
       <c r="O203">
         <v>9568</v>
@@ -14410,7 +14449,7 @@
         <v>28</v>
       </c>
       <c r="N204">
-        <v>0.22015570934256101</v>
+        <v>0.220155709</v>
       </c>
       <c r="O204">
         <v>2312</v>
@@ -14475,7 +14514,7 @@
         <v>28</v>
       </c>
       <c r="N205">
-        <v>0.48821902127253602</v>
+        <v>0.48821902099999998</v>
       </c>
       <c r="O205">
         <v>10483</v>
@@ -14540,7 +14579,7 @@
         <v>28</v>
       </c>
       <c r="N206">
-        <v>0.214314115308151</v>
+        <v>0.214314115</v>
       </c>
       <c r="O206">
         <v>5030</v>
@@ -14605,7 +14644,7 @@
         <v>28</v>
       </c>
       <c r="N207">
-        <v>0.476031598057014</v>
+        <v>0.476031598</v>
       </c>
       <c r="O207">
         <v>20381</v>
@@ -14670,7 +14709,7 @@
         <v>28</v>
       </c>
       <c r="N208">
-        <v>0.205974842767296</v>
+        <v>0.20597484299999999</v>
       </c>
       <c r="O208">
         <v>2544</v>
@@ -14735,7 +14774,7 @@
         <v>28</v>
       </c>
       <c r="N209">
-        <v>0.45051060487038502</v>
+        <v>0.45051060500000001</v>
       </c>
       <c r="O209">
         <v>7638</v>
@@ -14800,7 +14839,7 @@
         <v>28</v>
       </c>
       <c r="N210">
-        <v>0.20613048368953901</v>
+        <v>0.206130484</v>
       </c>
       <c r="O210">
         <v>3556</v>
@@ -14865,7 +14904,7 @@
         <v>28</v>
       </c>
       <c r="N211">
-        <v>0.49440199040341198</v>
+        <v>0.49440199000000001</v>
       </c>
       <c r="O211">
         <v>16881</v>
@@ -14930,7 +14969,7 @@
         <v>28</v>
       </c>
       <c r="N212">
-        <v>0.210502072777522</v>
+        <v>0.21050207300000001</v>
       </c>
       <c r="O212">
         <v>4342</v>
@@ -14995,7 +15034,7 @@
         <v>28</v>
       </c>
       <c r="N213">
-        <v>0.51582676798284499</v>
+        <v>0.51582676800000005</v>
       </c>
       <c r="O213">
         <v>21451</v>
@@ -15060,7 +15099,7 @@
         <v>28</v>
       </c>
       <c r="N214">
-        <v>0.25227085053674603</v>
+        <v>0.25227085100000002</v>
       </c>
       <c r="O214">
         <v>9688</v>
@@ -15125,7 +15164,7 @@
         <v>28</v>
       </c>
       <c r="N215">
-        <v>0.49816041206769701</v>
+        <v>0.498160412</v>
       </c>
       <c r="O215">
         <v>24462</v>
@@ -15190,7 +15229,7 @@
         <v>28</v>
       </c>
       <c r="N216">
-        <v>0.169547534316218</v>
+        <v>0.169547534</v>
       </c>
       <c r="O216">
         <v>3934</v>
@@ -15255,7 +15294,7 @@
         <v>28</v>
       </c>
       <c r="N217">
-        <v>0.48234918608362598</v>
+        <v>0.48234918599999999</v>
       </c>
       <c r="O217">
         <v>15665</v>
@@ -15320,7 +15359,7 @@
         <v>28</v>
       </c>
       <c r="N218">
-        <v>0.209881422924901</v>
+        <v>0.20988142300000001</v>
       </c>
       <c r="O218">
         <v>2530</v>
@@ -15385,7 +15424,7 @@
         <v>28</v>
       </c>
       <c r="N219">
-        <v>0.51363558888699501</v>
+        <v>0.51363558899999995</v>
       </c>
       <c r="O219">
         <v>11734</v>
@@ -15515,7 +15554,7 @@
         <v>28</v>
       </c>
       <c r="N221">
-        <v>0.57450536613856995</v>
+        <v>0.57450536600000002</v>
       </c>
       <c r="O221">
         <v>13697</v>
@@ -15580,7 +15619,7 @@
         <v>28</v>
       </c>
       <c r="N222">
-        <v>0.42099527787867802</v>
+        <v>0.42099527799999997</v>
       </c>
       <c r="O222">
         <v>2753</v>
@@ -15645,7 +15684,7 @@
         <v>28</v>
       </c>
       <c r="N223">
-        <v>0.64985673352435502</v>
+        <v>0.64985673399999999</v>
       </c>
       <c r="O223">
         <v>5235</v>
@@ -15710,7 +15749,7 @@
         <v>28</v>
       </c>
       <c r="N224">
-        <v>0.21469740634005799</v>
+        <v>0.21469740600000001</v>
       </c>
       <c r="O224">
         <v>4164</v>
@@ -15775,7 +15814,7 @@
         <v>28</v>
       </c>
       <c r="N225">
-        <v>0.52582789179104505</v>
+        <v>0.52582789200000002</v>
       </c>
       <c r="O225">
         <v>17152</v>
@@ -15840,7 +15879,7 @@
         <v>28</v>
       </c>
       <c r="N226">
-        <v>0.20146984287886499</v>
+        <v>0.20146984300000001</v>
       </c>
       <c r="O226">
         <v>3946</v>
@@ -15905,7 +15944,7 @@
         <v>28</v>
       </c>
       <c r="N227">
-        <v>0.48959713239304897</v>
+        <v>0.48959713199999999</v>
       </c>
       <c r="O227">
         <v>12833</v>
@@ -15970,7 +16009,7 @@
         <v>28</v>
       </c>
       <c r="N228">
-        <v>0.235967012503325</v>
+        <v>0.235967013</v>
       </c>
       <c r="O228">
         <v>3759</v>
@@ -16035,7 +16074,7 @@
         <v>28</v>
       </c>
       <c r="N229">
-        <v>0.47792989831278798</v>
+        <v>0.47792989800000002</v>
       </c>
       <c r="O229">
         <v>17603</v>
@@ -16100,7 +16139,7 @@
         <v>28</v>
       </c>
       <c r="N230">
-        <v>0.22402402402402399</v>
+        <v>0.22402402399999999</v>
       </c>
       <c r="O230">
         <v>1665</v>
@@ -16165,7 +16204,7 @@
         <v>28</v>
       </c>
       <c r="N231">
-        <v>0.48798408082044997</v>
+        <v>0.48798408100000001</v>
       </c>
       <c r="O231">
         <v>6533</v>
@@ -16230,7 +16269,7 @@
         <v>28</v>
       </c>
       <c r="N232">
-        <v>0.17270916334661399</v>
+        <v>0.172709163</v>
       </c>
       <c r="O232">
         <v>5020</v>
@@ -16295,7 +16334,7 @@
         <v>28</v>
       </c>
       <c r="N233">
-        <v>0.46081289658720598</v>
+        <v>0.460812897</v>
       </c>
       <c r="O233">
         <v>11662</v>
@@ -16360,7 +16399,7 @@
         <v>28</v>
       </c>
       <c r="N234">
-        <v>0.210843373493976</v>
+        <v>0.210843373</v>
       </c>
       <c r="O234">
         <v>1162</v>
@@ -16425,7 +16464,7 @@
         <v>28</v>
       </c>
       <c r="N235">
-        <v>0.51343154246100497</v>
+        <v>0.51343154199999996</v>
       </c>
       <c r="O235">
         <v>6924</v>
@@ -16490,7 +16529,7 @@
         <v>28</v>
       </c>
       <c r="N236">
-        <v>0.212679425837321</v>
+        <v>0.212679426</v>
       </c>
       <c r="O236">
         <v>4180</v>
@@ -16555,7 +16594,7 @@
         <v>28</v>
       </c>
       <c r="N237">
-        <v>0.50071790944768801</v>
+        <v>0.50071790900000002</v>
       </c>
       <c r="O237">
         <v>10447</v>
@@ -16620,7 +16659,7 @@
         <v>28</v>
       </c>
       <c r="N238">
-        <v>0.34182229767968297</v>
+        <v>0.34182229800000002</v>
       </c>
       <c r="O238">
         <v>5301</v>
@@ -16685,7 +16724,7 @@
         <v>28</v>
       </c>
       <c r="N239">
-        <v>0.56214640836619201</v>
+        <v>0.56214640800000004</v>
       </c>
       <c r="O239">
         <v>17499</v>
@@ -16750,7 +16789,7 @@
         <v>28</v>
       </c>
       <c r="N240">
-        <v>0.33501174890903002</v>
+        <v>0.33501174900000003</v>
       </c>
       <c r="O240">
         <v>2979</v>
@@ -16815,7 +16854,7 @@
         <v>28</v>
       </c>
       <c r="N241">
-        <v>0.63102069205355604</v>
+        <v>0.63102069199999999</v>
       </c>
       <c r="O241">
         <v>11502</v>
@@ -16880,7 +16919,7 @@
         <v>28</v>
       </c>
       <c r="N242">
-        <v>0.38827614379085001</v>
+        <v>0.38827614399999999</v>
       </c>
       <c r="O242">
         <v>4896</v>
@@ -16945,7 +16984,7 @@
         <v>28</v>
       </c>
       <c r="N243">
-        <v>0.62581238856617005</v>
+        <v>0.62581238900000002</v>
       </c>
       <c r="O243">
         <v>17387</v>
@@ -17010,7 +17049,7 @@
         <v>28</v>
       </c>
       <c r="N244">
-        <v>0.17848769050410301</v>
+        <v>0.178487691</v>
       </c>
       <c r="O244">
         <v>3412</v>
@@ -17075,7 +17114,7 @@
         <v>28</v>
       </c>
       <c r="N245">
-        <v>0.43786727819979898</v>
+        <v>0.43786727800000003</v>
       </c>
       <c r="O245">
         <v>13954</v>
@@ -17140,7 +17179,7 @@
         <v>28</v>
       </c>
       <c r="N246">
-        <v>0.222034307803817</v>
+        <v>0.22203430800000001</v>
       </c>
       <c r="O246">
         <v>4139</v>
@@ -17205,7 +17244,7 @@
         <v>28</v>
       </c>
       <c r="N247">
-        <v>0.48996899507568797</v>
+        <v>0.48996899500000002</v>
       </c>
       <c r="O247">
         <v>10966</v>
@@ -17270,7 +17309,7 @@
         <v>28</v>
       </c>
       <c r="N248">
-        <v>0.21435546875</v>
+        <v>0.21435546899999999</v>
       </c>
       <c r="O248">
         <v>4096</v>
@@ -17335,7 +17374,7 @@
         <v>28</v>
       </c>
       <c r="N249">
-        <v>0.53377383106771603</v>
+        <v>0.53377383099999998</v>
       </c>
       <c r="O249">
         <v>23761</v>
@@ -17400,7 +17439,7 @@
         <v>28</v>
       </c>
       <c r="N250">
-        <v>0.22978491696161199</v>
+        <v>0.22978491700000001</v>
       </c>
       <c r="O250">
         <v>3673</v>
@@ -17465,7 +17504,7 @@
         <v>28</v>
       </c>
       <c r="N251">
-        <v>0.49511677282377897</v>
+        <v>0.49511677300000001</v>
       </c>
       <c r="O251">
         <v>9420</v>
@@ -17530,7 +17569,7 @@
         <v>28</v>
       </c>
       <c r="N252">
-        <v>0.26958886050918701</v>
+        <v>0.26958886100000001</v>
       </c>
       <c r="O252">
         <v>12137</v>
@@ -17595,7 +17634,7 @@
         <v>28</v>
       </c>
       <c r="N253">
-        <v>0.49080281229561801</v>
+        <v>0.49080281199999998</v>
       </c>
       <c r="O253">
         <v>24464</v>
@@ -17660,7 +17699,7 @@
         <v>28</v>
       </c>
       <c r="N254">
-        <v>0.237607537894306</v>
+        <v>0.23760753800000001</v>
       </c>
       <c r="O254">
         <v>7323</v>
@@ -17725,7 +17764,7 @@
         <v>28</v>
       </c>
       <c r="N255">
-        <v>0.50292771736456199</v>
+        <v>0.50292771700000005</v>
       </c>
       <c r="O255">
         <v>20323</v>
